--- a/LOGS/331ef7f7-a121-4428-a707-8570ae54ebb0/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/331ef7f7-a121-4428-a707-8570ae54ebb0/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="116">
   <si>
     <t>line_item_0</t>
   </si>
@@ -125,6 +125,30 @@
     <t>Consolidated</t>
   </si>
   <si>
+    <t>line_item_1</t>
+  </si>
+  <si>
+    <t>Profit before income tax from continuing operations</t>
+  </si>
+  <si>
+    <t>Income tax expense calculated at 30% (2022:</t>
+  </si>
+  <si>
+    <t>Permanent differences</t>
+  </si>
+  <si>
+    <t>Other adjustments</t>
+  </si>
+  <si>
+    <t>Effect of different tax rates of subsidiaries operating in other tax jurisdictions</t>
+  </si>
+  <si>
+    <t>30%)</t>
+  </si>
+  <si>
+    <t>determining taxable</t>
+  </si>
+  <si>
     <t>Balance at 1 April 2021</t>
   </si>
   <si>
@@ -225,9 +249,6 @@
   </si>
   <si>
     <t>(308)</t>
-  </si>
-  <si>
-    <t>line_item_1</t>
   </si>
   <si>
     <t>Fully paid ordinary shares</t>
@@ -1006,10 +1027,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1694</v>
@@ -1018,7 +1039,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -1026,10 +1047,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>81</v>
@@ -1038,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -1046,10 +1067,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>-108</v>
@@ -1058,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -1066,10 +1087,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>-200</v>
@@ -1078,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -1086,10 +1107,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1467</v>
@@ -1098,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -1106,10 +1127,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1118,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>2023</v>
@@ -1126,10 +1147,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>-13</v>
@@ -1138,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -1146,10 +1167,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>-268</v>
@@ -1158,7 +1179,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>2023</v>
@@ -1166,10 +1187,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1188</v>
@@ -1178,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>2023</v>
@@ -1186,10 +1207,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>1130</v>
@@ -1198,7 +1219,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -1206,10 +1227,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>478</v>
@@ -1218,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -1226,10 +1247,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1238,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>2023</v>
@@ -1246,10 +1267,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>-449</v>
@@ -1258,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -1266,10 +1287,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1159</v>
@@ -1278,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>2022</v>
@@ -1286,10 +1307,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>570</v>
@@ -1298,7 +1319,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2023</v>
@@ -1306,10 +1327,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>-2</v>
@@ -1318,7 +1339,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>2023</v>
@@ -1326,10 +1347,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>-495</v>
@@ -1338,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>2023</v>
@@ -1346,10 +1367,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>1232</v>
@@ -1358,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2023</v>
@@ -1366,10 +1387,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>2824</v>
@@ -1386,10 +1407,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>559</v>
@@ -1406,10 +1427,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>-108</v>
@@ -1426,10 +1447,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>-649</v>
@@ -1446,10 +1467,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>2626</v>
@@ -1466,10 +1487,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>572</v>
@@ -1486,10 +1507,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>-15</v>
@@ -1506,10 +1527,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>-763</v>
@@ -1526,10 +1547,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>2420</v>
@@ -1576,10 +1597,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2420</v>
@@ -1593,10 +1614,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>-1232</v>
@@ -1613,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1188</v>
@@ -1627,10 +1648,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>5448</v>
@@ -1644,10 +1665,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>-4216</v>
@@ -1664,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>1232</v>
@@ -1681,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2420</v>
@@ -1695,10 +1716,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>3656</v>
@@ -1712,10 +1733,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>-2189</v>
@@ -1732,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>1467</v>
@@ -1746,10 +1767,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>5341</v>
@@ -1763,10 +1784,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>-4182</v>
@@ -1783,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1159</v>
@@ -1800,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>2626</v>
@@ -1868,7 +1889,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>13273</v>
@@ -1877,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1888,7 +1909,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>-2384</v>
@@ -1897,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1908,7 +1929,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>392</v>
@@ -1917,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1928,7 +1949,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>11281</v>
@@ -1937,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1948,7 +1969,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>-2179</v>
@@ -1957,7 +1978,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1968,7 +1989,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>102</v>
@@ -1977,7 +1998,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1988,7 +2009,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>-564</v>
@@ -1997,7 +2018,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2008,7 +2029,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>8640</v>
@@ -2017,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2028,7 +2049,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>15551</v>
@@ -2048,7 +2069,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>-2278</v>
@@ -2068,7 +2089,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2088,7 +2109,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>13273</v>
@@ -2108,7 +2129,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>-2384</v>
@@ -2128,7 +2149,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>392</v>
@@ -2148,7 +2169,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2168,7 +2189,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>11281</v>
@@ -2218,7 +2239,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2235,7 +2256,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2252,10 +2273,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>8388</v>
@@ -2269,10 +2290,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>967</v>
@@ -2286,10 +2307,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>1626</v>
@@ -2306,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>24787</v>
@@ -2320,7 +2341,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2337,7 +2358,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2354,10 +2375,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>12887</v>
@@ -2371,10 +2392,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>626</v>
@@ -2388,10 +2409,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>1645</v>
@@ -2408,7 +2429,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>24109</v>
@@ -2470,7 +2491,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2487,7 +2508,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2521,10 +2542,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>516</v>
@@ -2538,10 +2559,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -2555,10 +2576,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>2283</v>
@@ -2575,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2853</v>
@@ -2589,7 +2610,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2606,7 +2627,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2640,10 +2661,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>781</v>
@@ -2657,10 +2678,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>77</v>
@@ -2674,10 +2695,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>2328</v>
@@ -2694,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>3186</v>
@@ -2744,10 +2765,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>88</v>
@@ -2767,10 +2785,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>106</v>
@@ -2790,10 +2805,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>-88</v>
@@ -2813,10 +2825,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>106</v>
@@ -2836,10 +2845,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>77</v>
@@ -2859,10 +2865,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -2882,10 +2885,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>-38</v>
@@ -2905,10 +2905,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>54</v>
@@ -2928,10 +2925,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>2328</v>
@@ -2951,10 +2945,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>263</v>
@@ -2974,10 +2965,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>-150</v>
@@ -2997,10 +2985,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>2283</v>
@@ -3284,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3304,10 +3289,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -3324,16 +3309,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>5000000</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -3344,10 +3329,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>5000</v>
@@ -3394,10 +3379,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>38383</v>
@@ -3411,10 +3396,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>14621</v>
@@ -3428,10 +3413,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>63171</v>
@@ -3448,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>116175</v>
@@ -3462,10 +3447,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>38908</v>
@@ -3479,10 +3464,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>32164</v>
@@ -3496,10 +3481,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>34523</v>
@@ -3516,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>105595</v>
@@ -3560,10 +3545,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>288</v>
@@ -3577,10 +3562,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>1141</v>
@@ -3594,10 +3579,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>41</v>
@@ -3614,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>1470</v>
@@ -3628,10 +3613,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -3645,10 +3630,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3662,10 +3647,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3682,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>36</v>
@@ -3736,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3762,25 +3747,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>2023</v>
@@ -3788,25 +3773,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>2022</v>
@@ -3850,7 +3835,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1802</v>
@@ -3870,7 +3855,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2067</v>
@@ -3906,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3926,13 +3911,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>193</v>
@@ -3949,13 +3934,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>1218</v>
@@ -3972,13 +3957,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>61</v>
@@ -3995,13 +3980,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4018,13 +4003,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4041,13 +4026,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4064,13 +4049,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D8">
         <v>75</v>
@@ -4087,13 +4072,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4110,13 +4095,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>58</v>
@@ -4133,13 +4118,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>991</v>
@@ -4156,13 +4141,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>407</v>
@@ -4179,13 +4164,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4202,13 +4187,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>380</v>
@@ -4225,13 +4210,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -4248,10 +4233,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4268,13 +4253,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D17">
         <v>949</v>
@@ -4291,13 +4276,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4314,13 +4299,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4337,13 +4322,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4360,13 +4345,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4383,13 +4368,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>2823</v>
@@ -4406,13 +4391,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4429,13 +4414,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D24">
         <v>165</v>
@@ -4452,13 +4437,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -4475,13 +4460,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D26">
         <v>202</v>
@@ -4498,13 +4483,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <v>109</v>
@@ -4521,13 +4506,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D28">
         <v>1162</v>
@@ -4544,13 +4529,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D29">
         <v>54</v>
@@ -4567,13 +4552,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D30">
         <v>31160</v>
@@ -4590,13 +4575,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D31">
         <v>104</v>
@@ -4613,13 +4598,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D32">
         <v>8255</v>
@@ -4636,13 +4621,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D33">
         <v>43</v>
@@ -4659,13 +4644,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D34">
         <v>41</v>
@@ -4682,13 +4667,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <v>52</v>
@@ -4705,13 +4690,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <v>896</v>
@@ -4728,13 +4713,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D37">
         <v>160</v>
@@ -4751,13 +4736,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D38">
         <v>34</v>
@@ -4774,13 +4759,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>218</v>
@@ -4797,13 +4782,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4820,10 +4805,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -4840,13 +4825,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D42">
         <v>584</v>
@@ -4863,13 +4848,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>22</v>
@@ -4886,13 +4871,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D44">
         <v>295</v>
@@ -4909,13 +4894,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4932,13 +4917,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>52</v>
@@ -4955,13 +4940,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>2259</v>
@@ -4978,13 +4963,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D48">
         <v>20</v>
@@ -5001,13 +4986,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -5024,13 +5009,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5047,13 +5032,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5862,12 +5847,243 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>11119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>3336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>-15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>3376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>10746</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>3224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>3354</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
